--- a/实验内容/实验四/数据库查看部分测试.xlsx
+++ b/实验内容/实验四/数据库查看部分测试.xlsx
@@ -249,35 +249,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">  List&lt;Map&lt;String, Object&gt;&gt; listMap(String sql, Object... args);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行查询操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"select * from person</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回查询结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询出person中的所有对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Step6:开发人员将查询内容输入到“数据操作类”的队形的修改方法中执行查询操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  List&lt;Map&lt;String, Object&gt;&gt; listMap(String sql, Object... args);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行查询操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询语句</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回查询结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"select * from person</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询出person中的所有对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1001,25 +1001,25 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="G8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>55</v>
@@ -1028,7 +1028,7 @@
         <v>44</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>45</v>
@@ -1038,9 +1038,6 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9">
-        <v>4</v>
-      </c>
       <c r="B9" s="4"/>
       <c r="D9" s="4"/>
       <c r="F9" s="6"/>
@@ -1051,9 +1048,6 @@
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10">
-        <v>5</v>
-      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -1063,9 +1057,6 @@
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11">
-        <v>6</v>
-      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
